--- a/data.xlsx
+++ b/data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>std::vector</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>CAtlList</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -67,7 +70,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -85,141 +88,6 @@
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -304,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -312,13 +180,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -328,33 +196,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -446,7 +287,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11284754908429742"/>
+          <c:y val="7.1932115719809828E-2"/>
+          <c:w val="0.83128652912799306"/>
+          <c:h val="0.86237069053719373"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -510,22 +361,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3.1240000000000001E-6</c:v>
+                  <c:v>2.2309999999999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8295E-5</c:v>
+                  <c:v>1.0264E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1356489999999999E-3</c:v>
+                  <c:v>1.1329739999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0969186000000001E-2</c:v>
+                  <c:v>1.3341336000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.4775380000000002E-2</c:v>
+                  <c:v>8.2464340999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.75942579300000002</c:v>
+                  <c:v>0.75859714700000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -592,22 +443,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.2309999999999999E-6</c:v>
+                  <c:v>2.678E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2048000000000001E-5</c:v>
+                  <c:v>1.4725E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5966029999999998E-3</c:v>
+                  <c:v>2.7130689999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9330166999999999E-2</c:v>
+                  <c:v>1.6335974E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.104209942</c:v>
+                  <c:v>0.10509436699999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.255363107</c:v>
+                  <c:v>1.2276478630000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -674,22 +525,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.784E-6</c:v>
+                  <c:v>2.6769999999999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0160000000000002E-6</c:v>
+                  <c:v>8.4789999999999996E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.1945399999999999E-4</c:v>
+                  <c:v>6.4926199999999995E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.1285000000000003E-3</c:v>
+                  <c:v>9.157498E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.1474271999999998E-2</c:v>
+                  <c:v>3.5059715999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.296349629</c:v>
+                  <c:v>0.361887189</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -756,22 +607,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.678E-6</c:v>
+                  <c:v>2.2309999999999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.9239999999999996E-6</c:v>
+                  <c:v>7.1400000000000002E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.23873E-3</c:v>
+                  <c:v>1.34761E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3948205999999999E-2</c:v>
+                  <c:v>9.0682530000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.9366667999999997E-2</c:v>
+                  <c:v>5.9174789999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.59180858599999997</c:v>
+                  <c:v>0.75672611199999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -787,11 +638,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1530744592"/>
-        <c:axId val="-1530752208"/>
+        <c:axId val="467969008"/>
+        <c:axId val="467972816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1530744592"/>
+        <c:axId val="467969008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -834,7 +685,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1530752208"/>
+        <c:crossAx val="467972816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -842,7 +693,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1530752208"/>
+        <c:axId val="467972816"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -894,7 +745,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1530744592"/>
+        <c:crossAx val="467969008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1829,10 +1680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F8"/>
+  <dimension ref="B1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1843,121 +1694,124 @@
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:6" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="12" t="s">
+    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="15">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="6">
         <v>100</v>
       </c>
-      <c r="C3" s="3">
-        <v>3.1240000000000001E-6</v>
-      </c>
-      <c r="D3" s="4">
+      <c r="C3" s="1">
         <v>2.2309999999999999E-6</v>
       </c>
-      <c r="E3" s="4">
-        <v>1.784E-6</v>
-      </c>
-      <c r="F3" s="5">
+      <c r="D3" s="1">
         <v>2.678E-6</v>
       </c>
+      <c r="E3" s="1">
+        <v>2.6769999999999999E-6</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2.2309999999999999E-6</v>
+      </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="16">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="7">
         <v>1000</v>
       </c>
-      <c r="C4" s="6">
-        <v>1.8295E-5</v>
-      </c>
-      <c r="D4" s="7">
-        <v>1.2048000000000001E-5</v>
-      </c>
-      <c r="E4" s="7">
-        <v>4.0160000000000002E-6</v>
-      </c>
-      <c r="F4" s="8">
-        <v>8.9239999999999996E-6</v>
+      <c r="C4" s="1">
+        <v>1.0264E-5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.4725E-5</v>
+      </c>
+      <c r="E4" s="1">
+        <v>8.4789999999999996E-6</v>
+      </c>
+      <c r="F4" s="1">
+        <v>7.1400000000000002E-6</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="16">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="7">
         <v>100000</v>
       </c>
-      <c r="C5" s="6">
-        <v>2.1356489999999999E-3</v>
-      </c>
-      <c r="D5" s="7">
-        <v>2.5966029999999998E-3</v>
-      </c>
-      <c r="E5" s="7">
-        <v>4.1945399999999999E-4</v>
-      </c>
-      <c r="F5" s="8">
-        <v>1.23873E-3</v>
+      <c r="C5" s="1">
+        <v>1.1329739999999999E-3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2.7130689999999998E-3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>6.4926199999999995E-4</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.34761E-3</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="16">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="7">
         <v>1000000</v>
       </c>
-      <c r="C6" s="6">
-        <v>1.0969186000000001E-2</v>
-      </c>
-      <c r="D6" s="7">
-        <v>1.9330166999999999E-2</v>
-      </c>
-      <c r="E6" s="7">
-        <v>6.1285000000000003E-3</v>
-      </c>
-      <c r="F6" s="8">
-        <v>1.3948205999999999E-2</v>
+      <c r="C6" s="1">
+        <v>1.3341336000000001E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.6335974E-2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>9.157498E-3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>9.0682530000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="16">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="7">
         <v>10000000</v>
       </c>
-      <c r="C7" s="6">
-        <v>7.4775380000000002E-2</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0.104209942</v>
-      </c>
-      <c r="E7" s="7">
-        <v>3.1474271999999998E-2</v>
-      </c>
-      <c r="F7" s="8">
-        <v>5.9366667999999997E-2</v>
+      <c r="C7" s="1">
+        <v>8.2464340999999997E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.10509436699999999</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3.5059715999999998E-2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5.9174789999999998E-2</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="17">
+    <row r="8" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="8">
         <v>100000000</v>
       </c>
-      <c r="C8" s="9">
-        <v>0.75942579300000002</v>
-      </c>
-      <c r="D8" s="10">
-        <v>1.255363107</v>
-      </c>
-      <c r="E8" s="10">
-        <v>0.296349629</v>
-      </c>
-      <c r="F8" s="11">
-        <v>0.59180858599999997</v>
+      <c r="C8" s="1">
+        <v>0.75859714700000003</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.2276478630000001</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.361887189</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.75672611199999995</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -5,14 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Z\Fun\CollectionMicrobench\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Z\Temp\CollectionMicrobench\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9495"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9495" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Laptop" sheetId="1" r:id="rId1"/>
+    <sheet name="Lists" sheetId="3" r:id="rId2"/>
+    <sheet name="Maps" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="20">
   <si>
     <t>std::vector</t>
   </si>
@@ -38,14 +40,60 @@
     <t>CAtlList</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>Ubuntu, clang 4, libc++ 4.0.1</t>
+  </si>
+  <si>
+    <t>Windows 10, VS 2015 U3</t>
+  </si>
+  <si>
+    <t>5 inserts, 1 sequential scan, seconds, lower is better</t>
+  </si>
+  <si>
+    <t>list+PlexAlloc</t>
+  </si>
+  <si>
+    <t>Total time including constructor &amp; destructor, seconds, lower is better</t>
+  </si>
+  <si>
+    <t>std::map</t>
+  </si>
+  <si>
+    <t>std::map+plex</t>
+  </si>
+  <si>
+    <t>CRbMap</t>
+  </si>
+  <si>
+    <t>CAtlMap</t>
+  </si>
+  <si>
+    <t>unordered</t>
+  </si>
+  <si>
+    <t>unord.+plex</t>
+  </si>
+  <si>
+    <t>RB maps sequential scan, seconds, lower is better</t>
+  </si>
+  <si>
+    <t>Hash maps sequential scan, seconds, lower is better</t>
+  </si>
+  <si>
+    <t>RB maps total time, seconds, lower is better</t>
+  </si>
+  <si>
+    <t>Hash maps total time, seconds, lower is better</t>
+  </si>
+  <si>
+    <t>This is the old sheet.
+The laptop was i5-2410M with 8GB RAM.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,6 +109,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -70,7 +144,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -168,11 +242,212 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -197,6 +472,75 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -306,7 +650,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$2</c:f>
+              <c:f>Laptop!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -329,7 +673,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$8</c:f>
+              <c:f>Laptop!$B$3:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -356,7 +700,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$8</c:f>
+              <c:f>Laptop!$C$3:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -388,7 +732,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$2</c:f>
+              <c:f>Laptop!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -411,7 +755,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$8</c:f>
+              <c:f>Laptop!$B$3:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -438,7 +782,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$8</c:f>
+              <c:f>Laptop!$D$3:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -470,7 +814,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$2</c:f>
+              <c:f>Laptop!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -493,7 +837,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$8</c:f>
+              <c:f>Laptop!$B$3:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -520,7 +864,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$3:$E$8</c:f>
+              <c:f>Laptop!$E$3:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -552,7 +896,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$2</c:f>
+              <c:f>Laptop!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -575,7 +919,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$8</c:f>
+              <c:f>Laptop!$B$3:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -602,7 +946,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$3:$F$8</c:f>
+              <c:f>Laptop!$F$3:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -638,11 +982,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="467969008"/>
-        <c:axId val="467972816"/>
+        <c:axId val="-1352880656"/>
+        <c:axId val="-1352878480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="467969008"/>
+        <c:axId val="-1352880656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -685,7 +1029,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467972816"/>
+        <c:crossAx val="-1352878480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -693,7 +1037,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="467972816"/>
+        <c:axId val="-1352878480"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -745,7 +1089,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467969008"/>
+        <c:crossAx val="-1352880656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1680,11 +2024,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I8"/>
+  <dimension ref="B1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1694,8 +2036,8 @@
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:9" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:10" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1708,8 +2050,13 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H2" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="6">
         <v>100</v>
       </c>
@@ -1725,8 +2072,11 @@
       <c r="F3" s="1">
         <v>2.2309999999999999E-6</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="7">
         <v>1000</v>
       </c>
@@ -1742,8 +2092,11 @@
       <c r="F4" s="1">
         <v>7.1400000000000002E-6</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="7">
         <v>100000</v>
       </c>
@@ -1759,8 +2112,11 @@
       <c r="F5" s="1">
         <v>1.34761E-3</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="7">
         <v>1000000</v>
       </c>
@@ -1776,8 +2132,11 @@
       <c r="F6" s="1">
         <v>9.0682530000000001E-3</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="7">
         <v>10000000</v>
       </c>
@@ -1793,11 +2152,11 @@
       <c r="F7" s="1">
         <v>5.9174789999999998E-2</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+    </row>
+    <row r="8" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="8">
         <v>100000000</v>
       </c>
@@ -1813,10 +2172,1864 @@
       <c r="F8" s="1">
         <v>0.75672611199999995</v>
       </c>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H2:J8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:J20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="13.28515625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="28"/>
+      <c r="C3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="25"/>
+      <c r="J3" s="26"/>
+    </row>
+    <row r="4" spans="2:10" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="29"/>
+      <c r="C4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="6">
+        <v>100</v>
+      </c>
+      <c r="C5" s="15">
+        <v>6.4000000000000001E-7</v>
+      </c>
+      <c r="D5" s="16">
+        <v>3.2000000000000001E-7</v>
+      </c>
+      <c r="E5" s="16">
+        <v>3.2000000000000001E-7</v>
+      </c>
+      <c r="F5" s="16">
+        <v>3.2000000000000001E-7</v>
+      </c>
+      <c r="G5" s="17">
+        <v>3.2000000000000001E-7</v>
+      </c>
+      <c r="H5" s="15">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I5" s="16">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="J5" s="17">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="7">
+        <v>1000</v>
+      </c>
+      <c r="C6" s="18">
+        <v>3.5200000000000002E-6</v>
+      </c>
+      <c r="D6" s="19">
+        <v>3.1999999999999999E-6</v>
+      </c>
+      <c r="E6" s="19">
+        <v>9.5999999999999991E-7</v>
+      </c>
+      <c r="F6" s="19">
+        <v>1.5999999999999999E-6</v>
+      </c>
+      <c r="G6" s="20">
+        <v>1.9199999999999998E-6</v>
+      </c>
+      <c r="H6" s="18">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I6" s="19">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="J6" s="20">
+        <v>1.9999999999999999E-6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="7">
+        <v>100000</v>
+      </c>
+      <c r="C7" s="18">
+        <v>3.7567999999999998E-4</v>
+      </c>
+      <c r="D7" s="19">
+        <v>1.30656E-3</v>
+      </c>
+      <c r="E7" s="19">
+        <v>1.6320000000000001E-4</v>
+      </c>
+      <c r="F7" s="19">
+        <v>4.3936000000000002E-4</v>
+      </c>
+      <c r="G7" s="20">
+        <v>4.2272000000000002E-4</v>
+      </c>
+      <c r="H7" s="18">
+        <v>8.6000000000000003E-5</v>
+      </c>
+      <c r="I7" s="19">
+        <v>2.52E-4</v>
+      </c>
+      <c r="J7" s="20">
+        <v>1.85E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="7">
+        <v>1000000</v>
+      </c>
+      <c r="C8" s="18">
+        <v>4.3513600000000003E-3</v>
+      </c>
+      <c r="D8" s="19">
+        <v>9.2204799999999996E-3</v>
+      </c>
+      <c r="E8" s="19">
+        <v>1.864E-3</v>
+      </c>
+      <c r="F8" s="19">
+        <v>6.8633599999999998E-3</v>
+      </c>
+      <c r="G8" s="20">
+        <v>5.6268799999999999E-3</v>
+      </c>
+      <c r="H8" s="18">
+        <v>9.1E-4</v>
+      </c>
+      <c r="I8" s="19">
+        <v>2.7560000000000002E-3</v>
+      </c>
+      <c r="J8" s="20">
+        <v>2.3410000000000002E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="7">
+        <v>10000000</v>
+      </c>
+      <c r="C9" s="18">
+        <v>4.8956159999999999E-2</v>
+      </c>
+      <c r="D9" s="19">
+        <v>8.9544960000000007E-2</v>
+      </c>
+      <c r="E9" s="19">
+        <v>3.2244799999999997E-2</v>
+      </c>
+      <c r="F9" s="19">
+        <v>5.0579840000000001E-2</v>
+      </c>
+      <c r="G9" s="20">
+        <v>5.5596800000000002E-2</v>
+      </c>
+      <c r="H9" s="18">
+        <v>2.8001000000000002E-2</v>
+      </c>
+      <c r="I9" s="19">
+        <v>2.5610999999999998E-2</v>
+      </c>
+      <c r="J9" s="20">
+        <v>5.7171E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="8">
+        <v>100000000</v>
+      </c>
+      <c r="C10" s="21">
+        <v>0.47291519999999998</v>
+      </c>
+      <c r="D10" s="22">
+        <v>0.88913728000000003</v>
+      </c>
+      <c r="E10" s="22">
+        <v>0.26518271999999998</v>
+      </c>
+      <c r="F10" s="22">
+        <v>0.50252096000000002</v>
+      </c>
+      <c r="G10" s="23">
+        <v>0.52072479999999999</v>
+      </c>
+      <c r="H10" s="21">
+        <v>0.258297</v>
+      </c>
+      <c r="I10" s="22">
+        <v>0.24933900000000001</v>
+      </c>
+      <c r="J10" s="23">
+        <v>0.212259</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="28"/>
+      <c r="C13" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="25"/>
+      <c r="J13" s="26"/>
+    </row>
+    <row r="14" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="29"/>
+      <c r="C14" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="6">
+        <v>100</v>
+      </c>
+      <c r="C15" s="15">
+        <v>2.2079999999999999E-5</v>
+      </c>
+      <c r="D15" s="16">
+        <v>2.8160000000000001E-5</v>
+      </c>
+      <c r="E15" s="16">
+        <v>2.7520000000000001E-5</v>
+      </c>
+      <c r="F15" s="16">
+        <v>1.8879999999999999E-5</v>
+      </c>
+      <c r="G15" s="17">
+        <v>1.696E-5</v>
+      </c>
+      <c r="H15" s="15">
+        <v>4.8000000000000001E-5</v>
+      </c>
+      <c r="I15" s="16">
+        <v>4.8999999999999998E-5</v>
+      </c>
+      <c r="J15" s="17">
+        <v>3.6999999999999998E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="7">
+        <v>1000</v>
+      </c>
+      <c r="C16" s="18">
+        <v>1.472E-5</v>
+      </c>
+      <c r="D16" s="19">
+        <v>9.0879999999999997E-5</v>
+      </c>
+      <c r="E16" s="19">
+        <v>1.4080000000000001E-5</v>
+      </c>
+      <c r="F16" s="19">
+        <v>3.2639999999999999E-5</v>
+      </c>
+      <c r="G16" s="20">
+        <v>2.8479999999999998E-5</v>
+      </c>
+      <c r="H16" s="18">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="I16" s="19">
+        <v>5.1E-5</v>
+      </c>
+      <c r="J16" s="20">
+        <v>2.5000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="7">
+        <v>100000</v>
+      </c>
+      <c r="C17" s="18">
+        <v>9.4784000000000003E-4</v>
+      </c>
+      <c r="D17" s="19">
+        <v>9.4121599999999993E-3</v>
+      </c>
+      <c r="E17" s="19">
+        <v>7.7888000000000002E-4</v>
+      </c>
+      <c r="F17" s="19">
+        <v>3.2623999999999999E-3</v>
+      </c>
+      <c r="G17" s="20">
+        <v>2.6608000000000001E-3</v>
+      </c>
+      <c r="H17" s="18">
+        <v>9.2800000000000001E-4</v>
+      </c>
+      <c r="I17" s="19">
+        <v>5.4320000000000002E-3</v>
+      </c>
+      <c r="J17" s="20">
+        <v>2.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="7">
+        <v>1000000</v>
+      </c>
+      <c r="C18" s="18">
+        <v>1.17392E-2</v>
+      </c>
+      <c r="D18" s="19">
+        <v>8.5849599999999998E-2</v>
+      </c>
+      <c r="E18" s="19">
+        <v>8.2156799999999995E-3</v>
+      </c>
+      <c r="F18" s="19">
+        <v>4.4156479999999998E-2</v>
+      </c>
+      <c r="G18" s="20">
+        <v>3.2482240000000002E-2</v>
+      </c>
+      <c r="H18" s="18">
+        <v>7.6439999999999998E-3</v>
+      </c>
+      <c r="I18" s="19">
+        <v>5.3379999999999997E-2</v>
+      </c>
+      <c r="J18" s="20">
+        <v>2.7418000000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="7">
+        <v>10000000</v>
+      </c>
+      <c r="C19" s="18">
+        <v>0.12674144000000001</v>
+      </c>
+      <c r="D19" s="19">
+        <v>0.82929664000000003</v>
+      </c>
+      <c r="E19" s="19">
+        <v>0.10709952</v>
+      </c>
+      <c r="F19" s="19">
+        <v>0.37843487999999997</v>
+      </c>
+      <c r="G19" s="20">
+        <v>0.30668960000000001</v>
+      </c>
+      <c r="H19" s="18">
+        <v>0.115443</v>
+      </c>
+      <c r="I19" s="19">
+        <v>0.52212999999999998</v>
+      </c>
+      <c r="J19" s="20">
+        <v>0.357875</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="8">
+        <v>100000000</v>
+      </c>
+      <c r="C20" s="21">
+        <v>1.3101075200000001</v>
+      </c>
+      <c r="D20" s="22">
+        <v>8.7955158400000002</v>
+      </c>
+      <c r="E20" s="22">
+        <v>0.90960415999999999</v>
+      </c>
+      <c r="F20" s="22">
+        <v>3.8501289600000002</v>
+      </c>
+      <c r="G20" s="23">
+        <v>2.98954144</v>
+      </c>
+      <c r="H20" s="21">
+        <v>1.0286120000000001</v>
+      </c>
+      <c r="I20" s="22">
+        <v>5.2354620000000001</v>
+      </c>
+      <c r="J20" s="23">
+        <v>2.6639810000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="C2:J2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C10:J10">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:J9">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:J8">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7:J7">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:J6">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:J5">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20:J20">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19:J19">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18:J18">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:J17">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:J16">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:J15">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="13.28515625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="28"/>
+      <c r="C3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="2:7" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="29"/>
+      <c r="C4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="6">
+        <v>100</v>
+      </c>
+      <c r="C5" s="15">
+        <v>1.28E-6</v>
+      </c>
+      <c r="D5" s="16">
+        <v>1.28E-6</v>
+      </c>
+      <c r="E5" s="17">
+        <v>9.5999999999999991E-7</v>
+      </c>
+      <c r="F5" s="15">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G5" s="17">
+        <v>1.9999999999999999E-6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="7">
+        <v>1000</v>
+      </c>
+      <c r="C6" s="18">
+        <v>1.024E-5</v>
+      </c>
+      <c r="D6" s="19">
+        <v>9.5999999999999996E-6</v>
+      </c>
+      <c r="E6" s="20">
+        <v>8.9600000000000006E-6</v>
+      </c>
+      <c r="F6" s="18">
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="G6" s="20">
+        <v>9.0000000000000002E-6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="7">
+        <v>100000</v>
+      </c>
+      <c r="C7" s="18">
+        <v>3.7507199999999999E-3</v>
+      </c>
+      <c r="D7" s="19">
+        <v>4.2476800000000002E-3</v>
+      </c>
+      <c r="E7" s="20">
+        <v>3.32928E-3</v>
+      </c>
+      <c r="F7" s="18">
+        <v>3.1900000000000001E-3</v>
+      </c>
+      <c r="G7" s="20">
+        <v>5.2979999999999998E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="7">
+        <v>1000000</v>
+      </c>
+      <c r="C8" s="18">
+        <v>6.4924800000000005E-2</v>
+      </c>
+      <c r="D8" s="19">
+        <v>6.5471360000000006E-2</v>
+      </c>
+      <c r="E8" s="20">
+        <v>8.9421760000000003E-2</v>
+      </c>
+      <c r="F8" s="18">
+        <v>8.2804000000000003E-2</v>
+      </c>
+      <c r="G8" s="20">
+        <v>8.4036E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="8">
+        <v>10000000</v>
+      </c>
+      <c r="C9" s="21">
+        <v>0.75481664000000004</v>
+      </c>
+      <c r="D9" s="22">
+        <v>0.75302848</v>
+      </c>
+      <c r="E9" s="23">
+        <v>0.99095743999999997</v>
+      </c>
+      <c r="F9" s="21">
+        <v>0.99297800000000003</v>
+      </c>
+      <c r="G9" s="23">
+        <v>0.95995600000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="28"/>
+      <c r="C12" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="29"/>
+      <c r="C13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="6">
+        <v>100</v>
+      </c>
+      <c r="C14" s="15">
+        <v>5.1520000000000001E-5</v>
+      </c>
+      <c r="D14" s="16">
+        <v>3.5519999999999999E-5</v>
+      </c>
+      <c r="E14" s="17">
+        <v>3.8399999999999998E-5</v>
+      </c>
+      <c r="F14" s="15">
+        <v>6.2000000000000003E-5</v>
+      </c>
+      <c r="G14" s="17">
+        <v>6.3999999999999997E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="7">
+        <v>1000</v>
+      </c>
+      <c r="C15" s="18">
+        <v>2.0992E-4</v>
+      </c>
+      <c r="D15" s="19">
+        <v>1.4783999999999999E-4</v>
+      </c>
+      <c r="E15" s="20">
+        <v>1.8368E-4</v>
+      </c>
+      <c r="F15" s="18">
+        <v>1.4999999999999999E-4</v>
+      </c>
+      <c r="G15" s="20">
+        <v>1.26E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="7">
+        <v>100000</v>
+      </c>
+      <c r="C16" s="18">
+        <v>4.3768639999999998E-2</v>
+      </c>
+      <c r="D16" s="19">
+        <v>3.5009600000000002E-2</v>
+      </c>
+      <c r="E16" s="20">
+        <v>4.1638080000000001E-2</v>
+      </c>
+      <c r="F16" s="18">
+        <v>3.6261000000000002E-2</v>
+      </c>
+      <c r="G16" s="20">
+        <v>3.6658000000000003E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="7">
+        <v>1000000</v>
+      </c>
+      <c r="C17" s="18">
+        <v>0.81871136</v>
+      </c>
+      <c r="D17" s="19">
+        <v>0.67881855999999996</v>
+      </c>
+      <c r="E17" s="20">
+        <v>0.79611904</v>
+      </c>
+      <c r="F17" s="18">
+        <v>0.87408799999999998</v>
+      </c>
+      <c r="G17" s="20">
+        <v>0.70299100000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="7">
+        <v>10000000</v>
+      </c>
+      <c r="C18" s="21">
+        <v>14.23102688</v>
+      </c>
+      <c r="D18" s="22">
+        <v>11.286424</v>
+      </c>
+      <c r="E18" s="23">
+        <v>12.47119904</v>
+      </c>
+      <c r="F18" s="21">
+        <v>12.742029</v>
+      </c>
+      <c r="G18" s="23">
+        <v>11.230237000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="28"/>
+      <c r="C21" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="29"/>
+      <c r="C22" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="6">
+        <v>100</v>
+      </c>
+      <c r="C23" s="15">
+        <v>3.2000000000000001E-7</v>
+      </c>
+      <c r="D23" s="16">
+        <v>3.2000000000000001E-7</v>
+      </c>
+      <c r="E23" s="17">
+        <v>1.28E-6</v>
+      </c>
+      <c r="F23" s="15">
+        <v>0</v>
+      </c>
+      <c r="G23" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="7">
+        <v>1000</v>
+      </c>
+      <c r="C24" s="18">
+        <v>2.88E-6</v>
+      </c>
+      <c r="D24" s="19">
+        <v>2.2400000000000002E-6</v>
+      </c>
+      <c r="E24" s="20">
+        <v>1.024E-5</v>
+      </c>
+      <c r="F24" s="18">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="G24" s="20">
+        <v>3.0000000000000001E-6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="7">
+        <v>100000</v>
+      </c>
+      <c r="C25" s="18">
+        <v>1.1526399999999999E-3</v>
+      </c>
+      <c r="D25" s="19">
+        <v>3.77728E-3</v>
+      </c>
+      <c r="E25" s="20">
+        <v>2.52768E-3</v>
+      </c>
+      <c r="F25" s="18">
+        <v>3.6319999999999998E-3</v>
+      </c>
+      <c r="G25" s="20">
+        <v>1.5269999999999999E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="7">
+        <v>1000000</v>
+      </c>
+      <c r="C26" s="18">
+        <v>5.4539839999999999E-2</v>
+      </c>
+      <c r="D26" s="19">
+        <v>5.1156479999999997E-2</v>
+      </c>
+      <c r="E26" s="20">
+        <v>8.3073279999999999E-2</v>
+      </c>
+      <c r="F26" s="18">
+        <v>5.4724000000000002E-2</v>
+      </c>
+      <c r="G26" s="20">
+        <v>4.9606999999999998E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="7">
+        <v>10000000</v>
+      </c>
+      <c r="C27" s="21">
+        <v>0.60582367999999998</v>
+      </c>
+      <c r="D27" s="22">
+        <v>0.54870976000000005</v>
+      </c>
+      <c r="E27" s="23">
+        <v>0.95227647999999998</v>
+      </c>
+      <c r="F27" s="21">
+        <v>0.60142799999999996</v>
+      </c>
+      <c r="G27" s="23">
+        <v>0.59530899999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="28"/>
+      <c r="C30" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="29"/>
+      <c r="C31" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="6">
+        <v>100</v>
+      </c>
+      <c r="C32" s="15">
+        <v>4.3519999999999997E-5</v>
+      </c>
+      <c r="D32" s="16">
+        <v>3.6159999999999999E-5</v>
+      </c>
+      <c r="E32" s="17">
+        <v>2.7840000000000001E-5</v>
+      </c>
+      <c r="F32" s="15">
+        <v>8.2000000000000001E-5</v>
+      </c>
+      <c r="G32" s="17">
+        <v>7.4999999999999993E-5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="7">
+        <v>1000</v>
+      </c>
+      <c r="C33" s="18">
+        <v>1.4592000000000001E-4</v>
+      </c>
+      <c r="D33" s="19">
+        <v>7.9679999999999996E-5</v>
+      </c>
+      <c r="E33" s="20">
+        <v>7.8079999999999998E-5</v>
+      </c>
+      <c r="F33" s="18">
+        <v>1.3999999999999999E-4</v>
+      </c>
+      <c r="G33" s="20">
+        <v>1.08E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="7">
+        <v>100000</v>
+      </c>
+      <c r="C34" s="18">
+        <v>2.009056E-2</v>
+      </c>
+      <c r="D34" s="19">
+        <v>1.9395840000000001E-2</v>
+      </c>
+      <c r="E34" s="20">
+        <v>1.322368E-2</v>
+      </c>
+      <c r="F34" s="18">
+        <v>2.8191000000000001E-2</v>
+      </c>
+      <c r="G34" s="20">
+        <v>1.6528000000000001E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="7">
+        <v>1000000</v>
+      </c>
+      <c r="C35" s="18">
+        <v>0.41960064000000002</v>
+      </c>
+      <c r="D35" s="19">
+        <v>0.34929919999999998</v>
+      </c>
+      <c r="E35" s="20">
+        <v>0.29403903999999997</v>
+      </c>
+      <c r="F35" s="18">
+        <v>0.52742199999999995</v>
+      </c>
+      <c r="G35" s="20">
+        <v>0.46691700000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="7">
+        <v>10000000</v>
+      </c>
+      <c r="C36" s="21">
+        <v>6.1923199999999996</v>
+      </c>
+      <c r="D36" s="22">
+        <v>4.9700211200000002</v>
+      </c>
+      <c r="E36" s="23">
+        <v>3.9187481599999998</v>
+      </c>
+      <c r="F36" s="21">
+        <v>5.9803139999999999</v>
+      </c>
+      <c r="G36" s="23">
+        <v>5.4838269999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:G12"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D18:G18">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17:G17">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:G16">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15:G15">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:G14">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:G14">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:C18">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:C18">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18:G18">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:G17">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:G16">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:G15">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:G14">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:G9">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:G8">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7:G7">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:G6">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:G5">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:G5">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:C9">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:C9">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:G9">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:G8">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7:G7">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:G6">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:G5">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:G27">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:G26">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:G25">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24:G24">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23:G23">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23:G23">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24:C27">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24:C27">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27:G27">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26:G26">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:G25">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24:G24">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23:G23">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36:G36">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35:G35">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34:G34">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33:G33">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32:G32">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32:G32">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33:C36">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33:C36">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36:G36">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35:G35">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34:G34">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33:G33">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32:G32">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>